--- a/output/fit_clients/fit_round_166.xlsx
+++ b/output/fit_clients/fit_round_166.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2461876713.967361</v>
+        <v>2233754974.569152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07440841332723636</v>
+        <v>0.06931370342992524</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03413756173561803</v>
+        <v>0.03511464650107973</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1230938414.701226</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2372027714.44047</v>
+        <v>2064353052.95238</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1402211852709531</v>
+        <v>0.1717254037682696</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04373404024093442</v>
+        <v>0.03638422080942684</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1186013954.860848</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4100535478.056086</v>
+        <v>4057854259.393221</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1286817779275213</v>
+        <v>0.140772332097688</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03829462371721837</v>
+        <v>0.03265249150894842</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2050267760.294449</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3458242162.702373</v>
+        <v>3355661804.396591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09288073908175062</v>
+        <v>0.08308479396048836</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05065475169460005</v>
+        <v>0.04662816111279289</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1729121120.87882</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1762540539.348459</v>
+        <v>2419242937.804784</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09893843752061141</v>
+        <v>0.1379663854713118</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04092802281280948</v>
+        <v>0.05038989710832319</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>881270324.9431984</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2585862366.003464</v>
+        <v>2898282414.077516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0790628557807526</v>
+        <v>0.08682229984583723</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03071981215585016</v>
+        <v>0.03467902850189564</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>51</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1292931187.715404</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2612974902.651827</v>
+        <v>3174155646.410968</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2159624095587048</v>
+        <v>0.1362483632019353</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03300951411656588</v>
+        <v>0.02083139675422057</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>53</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1306487469.252013</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1477151545.099685</v>
+        <v>2220948700.868294</v>
       </c>
       <c r="F9" t="n">
-        <v>0.124323923603197</v>
+        <v>0.1802004745388698</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02498298833506498</v>
+        <v>0.03203129152205911</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>738575871.6778172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4363412788.051658</v>
+        <v>5869989431.19795</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1541286131775091</v>
+        <v>0.170520216812282</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04036804182384297</v>
+        <v>0.03725901856669969</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>70</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2181706444.043875</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3508340387.238481</v>
+        <v>3046337098.884702</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1853513671892855</v>
+        <v>0.1383769583386902</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03936550098931833</v>
+        <v>0.03722501492353649</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>68</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1754170171.984005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2556269586.857175</v>
+        <v>2252519951.006423</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1691685397550345</v>
+        <v>0.183600768093063</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04232299495276969</v>
+        <v>0.04384008726168075</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>58</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1278134770.785825</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4299677572.076931</v>
+        <v>4087940716.892035</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09923272103488058</v>
+        <v>0.08168789712319446</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02916189356384191</v>
+        <v>0.0311378797396376</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>55</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2149838825.72033</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2469759675.628436</v>
+        <v>3377816666.777483</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1161347500517319</v>
+        <v>0.162539225643268</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04339912628044504</v>
+        <v>0.04223786145493567</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>54</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1234879910.606999</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1319566903.545388</v>
+        <v>1373888498.287318</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07800416547661956</v>
+        <v>0.09489059870338132</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04101333129133924</v>
+        <v>0.04899067710327219</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>659783496.3350551</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2248300412.446713</v>
+        <v>2354612331.385769</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1041997676634616</v>
+        <v>0.1159554569394331</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0349444113781435</v>
+        <v>0.03164284489760767</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1124150259.497396</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4771782934.539474</v>
+        <v>5126875940.337086</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1212404636844962</v>
+        <v>0.119760985949029</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03553709163246707</v>
+        <v>0.0517858111862495</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>48</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2385891463.71077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2600042163.642053</v>
+        <v>2741454864.979071</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1724194652566857</v>
+        <v>0.1222795055743884</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02876419506025956</v>
+        <v>0.02791937441147338</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>54</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1300021141.058249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1009849382.259537</v>
+        <v>828791931.3709196</v>
       </c>
       <c r="F19" t="n">
-        <v>0.173639351741647</v>
+        <v>0.1537712175641861</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01849644836869885</v>
+        <v>0.02284039670708216</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>504924722.7193711</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2280417772.091012</v>
+        <v>2167629907.903616</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1252894679713954</v>
+        <v>0.10932458106317</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02568974018138582</v>
+        <v>0.02529859609826068</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>27</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1140208882.491073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2427854925.324547</v>
+        <v>2653260653.918599</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07437615686545375</v>
+        <v>0.1025740438906114</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03552014208719492</v>
+        <v>0.04341617472906827</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1213927457.659881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3702200464.149716</v>
+        <v>3305659420.373302</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1262197221183086</v>
+        <v>0.1255911573699337</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04322369284111287</v>
+        <v>0.04861356218700569</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1851100251.519578</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>955457727.2123483</v>
+        <v>1331063868.896337</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1647799285103423</v>
+        <v>0.1391969087374941</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05183139817581787</v>
+        <v>0.03644520239833321</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>477728941.26353</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4005667750.746848</v>
+        <v>2681358704.68727</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1198640080568456</v>
+        <v>0.12712862710016</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03762205555436612</v>
+        <v>0.0340318728023904</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>48</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2002833842.96314</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>999081351.4234687</v>
+        <v>1269264812.431273</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1146033546723406</v>
+        <v>0.1206317496974965</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03066977691711654</v>
+        <v>0.02385660379574112</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>499540739.8816515</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1360882385.110225</v>
+        <v>995542910.4349483</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09542510290004022</v>
+        <v>0.09047807289860524</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02795444401693049</v>
+        <v>0.02800248353101094</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>680441252.9862161</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3531621755.802803</v>
+        <v>3117033160.098914</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1284452784051047</v>
+        <v>0.1092727854733711</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02283815580840384</v>
+        <v>0.02102749788459412</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1765810911.27168</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2431680360.518745</v>
+        <v>3566687708.76351</v>
       </c>
       <c r="F28" t="n">
-        <v>0.125593335067264</v>
+        <v>0.09375820315836754</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03298247708772745</v>
+        <v>0.05029062222267407</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>53</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1215840142.109705</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4153097897.781264</v>
+        <v>5872131500.591517</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09949810849607715</v>
+        <v>0.1516349154514854</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03272440669805596</v>
+        <v>0.04079959539787975</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2076548955.070776</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2103430922.432478</v>
+        <v>1561702733.094023</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1380277156731239</v>
+        <v>0.121439206970654</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03496223592093106</v>
+        <v>0.03518971103308523</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1051715510.409132</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1197692872.925529</v>
+        <v>1042939328.084962</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1010216865575144</v>
+        <v>0.1079942090443431</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04174786943927861</v>
+        <v>0.04793687653043268</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>598846388.444182</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1843471130.341258</v>
+        <v>1151687843.05581</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1199789202524431</v>
+        <v>0.1193732369544344</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02573974281933532</v>
+        <v>0.02888247964644797</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>921735704.6407663</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2944915912.69991</v>
+        <v>2192995170.241468</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1549827447837957</v>
+        <v>0.1872479140503051</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03982503358328665</v>
+        <v>0.04187218405515875</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>49</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1472457956.620104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1261792685.701025</v>
+        <v>1164585707.219207</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09075623882974879</v>
+        <v>0.08045936769074799</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02832793673382251</v>
+        <v>0.0176655342688592</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>630896337.7225723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1289272129.386057</v>
+        <v>1341024455.942938</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1167858596303908</v>
+        <v>0.08754674600013886</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04085219934592002</v>
+        <v>0.02999324561451962</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>644636019.8134248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2949266326.263028</v>
+        <v>1973343149.625452</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1776548099379161</v>
+        <v>0.1721190886517395</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01806704984556862</v>
+        <v>0.02369167342841009</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>41</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1474633149.06389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2700742606.773776</v>
+        <v>1791189801.894083</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1061022395351813</v>
+        <v>0.09697665779305584</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04024850008853761</v>
+        <v>0.02658733224794237</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>46</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1350371427.019978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1418297272.741286</v>
+        <v>1535712113.54068</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08099879680722123</v>
+        <v>0.07737648614530082</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03058650629095501</v>
+        <v>0.03512169530073984</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>709148697.1336823</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2126117337.814291</v>
+        <v>1696396713.906644</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1343354405724678</v>
+        <v>0.1649521457202511</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03211819104080037</v>
+        <v>0.03281175694329291</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1063058644.262024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1218828412.366675</v>
+        <v>1568438562.96718</v>
       </c>
       <c r="F40" t="n">
-        <v>0.112008851472045</v>
+        <v>0.1056153209207775</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05434414893040532</v>
+        <v>0.05300175584286877</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>609414242.747591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2668277171.054461</v>
+        <v>2101898761.83883</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1364757213114659</v>
+        <v>0.1087691849890479</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03234637482166212</v>
+        <v>0.03739433319694449</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>43</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1334138594.338819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3087170887.72595</v>
+        <v>4161608659.882728</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09855147351026282</v>
+        <v>0.09257594654925699</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0429430492504969</v>
+        <v>0.0383963222484961</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1543585410.265026</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2980825817.201138</v>
+        <v>1916212709.868</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1570607503531937</v>
+        <v>0.2003255701069774</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02597089102931271</v>
+        <v>0.02547780274975789</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>57</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1490412908.89303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2058708554.049192</v>
+        <v>2347818077.003313</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09095063081492823</v>
+        <v>0.08528105145040245</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02655787249118901</v>
+        <v>0.02527433815877305</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1029354395.046078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2483982449.576812</v>
+        <v>1672246431.876624</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1848501599127434</v>
+        <v>0.1210330560220113</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05161662085933416</v>
+        <v>0.04744962968007965</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1241991264.377713</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5291625734.439171</v>
+        <v>4073019159.832025</v>
       </c>
       <c r="F46" t="n">
-        <v>0.15752118560805</v>
+        <v>0.1497261304153678</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0557728730041327</v>
+        <v>0.06041738254433495</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>59</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2645812910.704335</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4578281977.628599</v>
+        <v>3491908078.99122</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1348390187272397</v>
+        <v>0.122703714326774</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03682509026221549</v>
+        <v>0.05132768577794877</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>44</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2289141020.67642</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4186294771.220931</v>
+        <v>2927100054.07065</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07156105676997815</v>
+        <v>0.1002073439002302</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03829998648845293</v>
+        <v>0.03709177745793657</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2093147409.12525</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1521428893.21118</v>
+        <v>1480847796.671704</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1463890825608276</v>
+        <v>0.1237071654772893</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02842538529139205</v>
+        <v>0.04362926146568434</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>760714475.2545167</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2807179038.584729</v>
+        <v>2566915537.151403</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1392180702709407</v>
+        <v>0.1194190148984051</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0392571322129877</v>
+        <v>0.03733806263740823</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>56</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1403589592.803144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1126481778.092432</v>
+        <v>1062741335.644468</v>
       </c>
       <c r="F51" t="n">
-        <v>0.191279898976208</v>
+        <v>0.1870915181483385</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04455571351415621</v>
+        <v>0.04277894033040398</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>563240952.4654363</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3482383684.060185</v>
+        <v>5269865859.180799</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09290526249906209</v>
+        <v>0.127471466474822</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0420676756041598</v>
+        <v>0.04222097456831247</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>68</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1741191928.941902</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3110959310.975002</v>
+        <v>2425687147.176478</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1251137118352924</v>
+        <v>0.1257470204475692</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02461030227231189</v>
+        <v>0.02887233886085798</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>47</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1555479680.254958</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3852913803.505369</v>
+        <v>3158295502.94528</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1062625228493232</v>
+        <v>0.1389398574501731</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04178248617774327</v>
+        <v>0.04438344539843241</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1926456954.24359</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4196395597.844997</v>
+        <v>4199721010.524819</v>
       </c>
       <c r="F55" t="n">
-        <v>0.168546631076748</v>
+        <v>0.2182774912250922</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03043504114164645</v>
+        <v>0.02284063712726919</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2098197782.450601</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1554472739.421132</v>
+        <v>1421882770.575461</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1527314268329447</v>
+        <v>0.1441527829779141</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04187042607787987</v>
+        <v>0.0528994941287978</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>777236403.8770869</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3769946178.259936</v>
+        <v>3143553866.762391</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1611823381909923</v>
+        <v>0.1564988463992555</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02673825914582517</v>
+        <v>0.02111306168413502</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>52</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1884973158.150598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1368597061.780434</v>
+        <v>1430984107.861263</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1968415231829204</v>
+        <v>0.1335600125432375</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02571532576666229</v>
+        <v>0.03745382818006118</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>684298573.9777752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4336499279.519597</v>
+        <v>4929433487.299593</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1070359952534343</v>
+        <v>0.1140413684434376</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03628812580024973</v>
+        <v>0.04849419925796893</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>45</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2168249599.442937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2518170156.151</v>
+        <v>2991656334.731582</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1264357643392866</v>
+        <v>0.1361564742118093</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02156320033341644</v>
+        <v>0.0202286602873435</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1259085097.854723</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2163199328.70249</v>
+        <v>2374104718.694481</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1185494059372121</v>
+        <v>0.1173820141704545</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02760822809139024</v>
+        <v>0.02880457446071361</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>56</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1081599723.701333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1670279196.029809</v>
+        <v>2057507834.044531</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1736479860114301</v>
+        <v>0.1435827462873767</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04409588073646099</v>
+        <v>0.03221415374789124</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>835139606.6010097</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3848627973.478853</v>
+        <v>4020600660.128176</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1026418142134985</v>
+        <v>0.09550701473755917</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04158461254303752</v>
+        <v>0.03843153212948144</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>48</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1924314055.838874</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4354792068.475354</v>
+        <v>4308871349.87571</v>
       </c>
       <c r="F64" t="n">
-        <v>0.121971619404828</v>
+        <v>0.1409519382586122</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02345341773613498</v>
+        <v>0.02915260294823511</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>51</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2177396095.019755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4647960840.259714</v>
+        <v>3704724060.131594</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1467380981140667</v>
+        <v>0.1103784594762305</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02561142143205117</v>
+        <v>0.03001493053756977</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>59</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2323980400.012052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4638361878.527634</v>
+        <v>3972006179.080188</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1040920237553026</v>
+        <v>0.1563864572541689</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03770425235042404</v>
+        <v>0.03647680173823771</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>48</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2319180947.001838</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3109277786.303593</v>
+        <v>3455361656.450359</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08030938954105143</v>
+        <v>0.1027060494387619</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03246614914741434</v>
+        <v>0.03386204358387603</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>53</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1554638902.167747</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3745164695.653045</v>
+        <v>5606111901.172994</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1218158748864822</v>
+        <v>0.1074485715837922</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03385951910244431</v>
+        <v>0.04711837463401804</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>53</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1872582328.13468</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1607777025.055032</v>
+        <v>1541800885.724373</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1423984575454622</v>
+        <v>0.1567669980014494</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04275832311629556</v>
+        <v>0.05458667908355317</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>803888466.7297401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3153408555.809145</v>
+        <v>2889283606.632599</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07924984892527666</v>
+        <v>0.1017748566052331</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03913193170271016</v>
+        <v>0.04933231877834962</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>47</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1576704264.825755</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4997199917.04838</v>
+        <v>5481649674.419966</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1635733573003111</v>
+        <v>0.1156371437052518</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02106108609428159</v>
+        <v>0.02364968622868642</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>60</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2498600064.017352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1435132499.589676</v>
+        <v>1906811004.007086</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08917236735696257</v>
+        <v>0.07743315928891981</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03608635100437703</v>
+        <v>0.04321110545281495</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>717566287.2310952</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3545162961.405872</v>
+        <v>2754923979.145573</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1091600197868292</v>
+        <v>0.1094297168137845</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04656101365628484</v>
+        <v>0.03939868332941626</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>62</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1772581426.741505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3206209581.881842</v>
+        <v>3706351670.331132</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1778177843983585</v>
+        <v>0.1607818407766498</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02718944888998873</v>
+        <v>0.02381364210637524</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>57</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1603104838.477733</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1883806820.539995</v>
+        <v>1557754190.152545</v>
       </c>
       <c r="F75" t="n">
-        <v>0.101729367871119</v>
+        <v>0.1172437870463436</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0372626752058555</v>
+        <v>0.03752204597105763</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>941903385.3704878</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3653938118.871833</v>
+        <v>3341873905.784253</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1095510930157815</v>
+        <v>0.1018609032077422</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02726843751486333</v>
+        <v>0.02142448496487302</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1826969029.610361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1419060174.825243</v>
+        <v>1821649665.40382</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1249646922831586</v>
+        <v>0.1291158755575796</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02288533708639945</v>
+        <v>0.02988597812317844</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>709530063.0969498</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3895279303.237229</v>
+        <v>3264994832.43202</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1192772159511102</v>
+        <v>0.1154553554799577</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03820718356354972</v>
+        <v>0.04622757474641122</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>57</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1947639624.827401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1323197824.574957</v>
+        <v>1385952966.52549</v>
       </c>
       <c r="F79" t="n">
-        <v>0.171272554455403</v>
+        <v>0.115997214495692</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04077367657622193</v>
+        <v>0.03337761615865364</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>661598915.5502157</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4025771362.379909</v>
+        <v>3919273873.192346</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0786576076933358</v>
+        <v>0.104752002415225</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02990964468277927</v>
+        <v>0.03160241848658462</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>34</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2012885681.903649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3336934067.260527</v>
+        <v>5002899636.86986</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1375183249988042</v>
+        <v>0.09428539727144575</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02044817021552826</v>
+        <v>0.02971734514389352</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1668466972.203909</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5442983781.050761</v>
+        <v>5557121969.049643</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1868207557812756</v>
+        <v>0.1600716014170767</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02028181772628551</v>
+        <v>0.0248465231147026</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2721491849.690761</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2210501383.997982</v>
+        <v>2458527407.021821</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1512127339259272</v>
+        <v>0.1202219184731577</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03010368011952607</v>
+        <v>0.04051956193035144</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1105250703.514772</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2175379494.040117</v>
+        <v>2599431801.650918</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07989458371971578</v>
+        <v>0.0884134228919356</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04648894856392986</v>
+        <v>0.05167494059825328</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1087689726.347992</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3457870282.811075</v>
+        <v>3498669016.58713</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1578383557116659</v>
+        <v>0.1449417011414172</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03522216869159168</v>
+        <v>0.04622733792816566</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>62</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1728935252.060872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1909168977.102252</v>
+        <v>2263391363.405511</v>
       </c>
       <c r="F86" t="n">
-        <v>0.134476838762583</v>
+        <v>0.1364739096237856</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02316457146460464</v>
+        <v>0.02078027862793065</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>954584503.5257514</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1158374665.400558</v>
+        <v>1388716761.78661</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1885801812875818</v>
+        <v>0.1421109519810713</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0411683202599764</v>
+        <v>0.0364047098499103</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>579187377.5868165</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3070679066.789775</v>
+        <v>2408437874.709828</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1590985595413497</v>
+        <v>0.1722999853606003</v>
       </c>
       <c r="G88" t="n">
-        <v>0.029741804759304</v>
+        <v>0.03852636787791019</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>66</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1535339570.788579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3043568884.478327</v>
+        <v>2937496093.38839</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1503879227001876</v>
+        <v>0.1580216782033266</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03648126555369186</v>
+        <v>0.03392673531715183</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1521784477.1181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2036467804.222843</v>
+        <v>1482363938.719127</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09348744423748809</v>
+        <v>0.1198506274252092</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04785444036914093</v>
+        <v>0.04473456257690835</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1018233979.030536</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1580036282.384753</v>
+        <v>1391622624.522642</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1695164797520396</v>
+        <v>0.1211015515190994</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05414280908407578</v>
+        <v>0.04804603692332273</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>790018169.4299514</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2149825630.174316</v>
+        <v>1944616692.007115</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09520269706283375</v>
+        <v>0.09644788509005513</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04646832437071333</v>
+        <v>0.03554200696297819</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>40</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1074912772.559163</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4905783846.738347</v>
+        <v>4205876234.60264</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1182701152313409</v>
+        <v>0.1010779020617793</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04062098750093577</v>
+        <v>0.03694150880072346</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2452891865.402054</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2477011905.503052</v>
+        <v>2067845616.808225</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1396302852259369</v>
+        <v>0.1629608396569495</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03197793362907065</v>
+        <v>0.0304676366955503</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1238506013.170446</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2885236181.143602</v>
+        <v>2226243905.92824</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1084751020441542</v>
+        <v>0.08831520413767642</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04264155866651119</v>
+        <v>0.03300580521568319</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>40</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1442618098.60069</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1493492913.934616</v>
+        <v>1897400657.601016</v>
       </c>
       <c r="F96" t="n">
-        <v>0.113332710120845</v>
+        <v>0.1294712885770296</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0285668088910957</v>
+        <v>0.04464364134498321</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>746746497.9855467</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4531790003.172965</v>
+        <v>5328422521.496758</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1219390611640406</v>
+        <v>0.1296385045993333</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02776657438961096</v>
+        <v>0.02785420784377854</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>54</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2265895100.702205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2795339538.804841</v>
+        <v>2628027670.264084</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08880384435943336</v>
+        <v>0.1233686733936789</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02378096299466269</v>
+        <v>0.02549080101077382</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>44</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1397669740.17758</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2293292894.290084</v>
+        <v>2227284486.596951</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0996713016890039</v>
+        <v>0.1286978650691019</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03006566725216618</v>
+        <v>0.03535847638533551</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1146646381.895161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3972792813.784614</v>
+        <v>3627301264.044127</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1589058256828747</v>
+        <v>0.1476879361578891</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02405339079307053</v>
+        <v>0.02307288612015564</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>51</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1986396475.37093</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2200856422.568359</v>
+        <v>2861889879.760191</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1664431982018137</v>
+        <v>0.2038349747095474</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05052839614692084</v>
+        <v>0.03608661732403269</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>67</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1100428194.677356</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_166.xlsx
+++ b/output/fit_clients/fit_round_166.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2233754974.569152</v>
+        <v>1738207838.219081</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06931370342992524</v>
+        <v>0.1134000769214752</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03511464650107973</v>
+        <v>0.02789171200062413</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2064353052.95238</v>
+        <v>1810411735.356771</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1717254037682696</v>
+        <v>0.1361475754278147</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03638422080942684</v>
+        <v>0.04205593928718942</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4057854259.393221</v>
+        <v>3594079595.585757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.140772332097688</v>
+        <v>0.1576624268717503</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03265249150894842</v>
+        <v>0.03582658393376825</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3355661804.396591</v>
+        <v>3368054306.127783</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08308479396048836</v>
+        <v>0.1026690131768654</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04662816111279289</v>
+        <v>0.04208014967175456</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2419242937.804784</v>
+        <v>1956192265.40143</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1379663854713118</v>
+        <v>0.1376593384694659</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05038989710832319</v>
+        <v>0.03808201284588329</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2898282414.077516</v>
+        <v>2415391463.001184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08682229984583723</v>
+        <v>0.06887810147478103</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03467902850189564</v>
+        <v>0.04064213508421378</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3174155646.410968</v>
+        <v>3244421895.287131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362483632019353</v>
+        <v>0.2044543169528036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02083139675422057</v>
+        <v>0.02399165786214987</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2220948700.868294</v>
+        <v>1906611271.957431</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1802004745388698</v>
+        <v>0.1201529689160728</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03203129152205911</v>
+        <v>0.03364919704147267</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5869989431.19795</v>
+        <v>5808755436.080688</v>
       </c>
       <c r="F10" t="n">
-        <v>0.170520216812282</v>
+        <v>0.1354573470766215</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03725901856669969</v>
+        <v>0.04650753698476368</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3046337098.884702</v>
+        <v>3168769791.139827</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1383769583386902</v>
+        <v>0.1812109100600807</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03722501492353649</v>
+        <v>0.04255408097867844</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2252519951.006423</v>
+        <v>2115428954.687921</v>
       </c>
       <c r="F12" t="n">
-        <v>0.183600768093063</v>
+        <v>0.1445665750038202</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04384008726168075</v>
+        <v>0.0386445450130662</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4087940716.892035</v>
+        <v>5302332193.624983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08168789712319446</v>
+        <v>0.07497993791284301</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0311378797396376</v>
+        <v>0.01901872923781467</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3377816666.777483</v>
+        <v>3213164145.289678</v>
       </c>
       <c r="F14" t="n">
-        <v>0.162539225643268</v>
+        <v>0.1773880157071929</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04223786145493567</v>
+        <v>0.03794838834014493</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1373888498.287318</v>
+        <v>1757705632.915445</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09489059870338132</v>
+        <v>0.1025603622173594</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04899067710327219</v>
+        <v>0.04185012517580764</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2354612331.385769</v>
+        <v>1820890589.585333</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1159554569394331</v>
+        <v>0.1084343151433932</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03164284489760767</v>
+        <v>0.03779729858215246</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5126875940.337086</v>
+        <v>5025378490.828761</v>
       </c>
       <c r="F17" t="n">
-        <v>0.119760985949029</v>
+        <v>0.153075083397015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0517858111862495</v>
+        <v>0.04578639565008485</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2741454864.979071</v>
+        <v>2609597810.352022</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1222795055743884</v>
+        <v>0.1222175032989601</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02791937441147338</v>
+        <v>0.02186030892795004</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>828791931.3709196</v>
+        <v>1147009869.886544</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1537712175641861</v>
+        <v>0.1413300114096252</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02284039670708216</v>
+        <v>0.0217925330007154</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2167629907.903616</v>
+        <v>2538175263.279943</v>
       </c>
       <c r="F20" t="n">
-        <v>0.10932458106317</v>
+        <v>0.1511435622417198</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02529859609826068</v>
+        <v>0.02485505670346742</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2653260653.918599</v>
+        <v>2299985740.794842</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1025740438906114</v>
+        <v>0.06420716473869911</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04341617472906827</v>
+        <v>0.04137565730742627</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3305659420.373302</v>
+        <v>3611460085.594268</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1255911573699337</v>
+        <v>0.1036430058945748</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04861356218700569</v>
+        <v>0.05511890429863085</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1331063868.896337</v>
+        <v>1300731806.391489</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1391969087374941</v>
+        <v>0.1120905071629348</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03644520239833321</v>
+        <v>0.04926734219429262</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2681358704.68727</v>
+        <v>3374880473.635608</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12712862710016</v>
+        <v>0.1017807707440796</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0340318728023904</v>
+        <v>0.02463357241783306</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1269264812.431273</v>
+        <v>1111970653.7963</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1206317496974965</v>
+        <v>0.07682429588045685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02385660379574112</v>
+        <v>0.01973032626434343</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>995542910.4349483</v>
+        <v>1200686470.144567</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09047807289860524</v>
+        <v>0.09268488344567136</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02800248353101094</v>
+        <v>0.02894067807911671</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3117033160.098914</v>
+        <v>2922888780.166394</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1092727854733711</v>
+        <v>0.1372020763350338</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02102749788459412</v>
+        <v>0.02081403375834264</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3566687708.76351</v>
+        <v>2816412150.742325</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09375820315836754</v>
+        <v>0.1210415991281537</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05029062222267407</v>
+        <v>0.04496686348995974</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5872131500.591517</v>
+        <v>4809891118.612564</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1516349154514854</v>
+        <v>0.1453150795657958</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04079959539787975</v>
+        <v>0.04546814023545181</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1561702733.094023</v>
+        <v>2349367871.146323</v>
       </c>
       <c r="F30" t="n">
-        <v>0.121439206970654</v>
+        <v>0.08881739026068609</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03518971103308523</v>
+        <v>0.0367955017428006</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1042939328.084962</v>
+        <v>1224033807.734668</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1079942090443431</v>
+        <v>0.0896081280475552</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04793687653043268</v>
+        <v>0.04556557789884673</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1151687843.05581</v>
+        <v>1276546942.304441</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1193732369544344</v>
+        <v>0.1163494295487933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02888247964644797</v>
+        <v>0.02361188269742627</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2192995170.241468</v>
+        <v>1895801084.980518</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1872479140503051</v>
+        <v>0.1329433323535347</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04187218405515875</v>
+        <v>0.04075060131619922</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1164585707.219207</v>
+        <v>1555793308.526772</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08045936769074799</v>
+        <v>0.1112528027820347</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0176655342688592</v>
+        <v>0.02638510077722108</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1341024455.942938</v>
+        <v>1069854284.33839</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08754674600013886</v>
+        <v>0.1002307224367495</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02999324561451962</v>
+        <v>0.03834815059158256</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1973343149.625452</v>
+        <v>2681318197.623989</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1721190886517395</v>
+        <v>0.1588823258696858</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02369167342841009</v>
+        <v>0.02440411801590977</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1791189801.894083</v>
+        <v>2394235052.635236</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09697665779305584</v>
+        <v>0.07089981588902282</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02658733224794237</v>
+        <v>0.03042407562298574</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1535712113.54068</v>
+        <v>1709809206.562459</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07737648614530082</v>
+        <v>0.1012404424541305</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03512169530073984</v>
+        <v>0.0255635515068718</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1696396713.906644</v>
+        <v>2187634780.29175</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1649521457202511</v>
+        <v>0.1517642242194432</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03281175694329291</v>
+        <v>0.02468137163139283</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1568438562.96718</v>
+        <v>1399775083.450471</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1056153209207775</v>
+        <v>0.1218236203497649</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05300175584286877</v>
+        <v>0.03700472710536756</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2101898761.83883</v>
+        <v>1905563726.934259</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1087691849890479</v>
+        <v>0.1348556526079443</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03739433319694449</v>
+        <v>0.03568593839593708</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4161608659.882728</v>
+        <v>3570417564.213328</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09257594654925699</v>
+        <v>0.1124729120627072</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0383963222484961</v>
+        <v>0.04503612940968068</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1916212709.868</v>
+        <v>2648616224.366883</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2003255701069774</v>
+        <v>0.1598677292832802</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02547780274975789</v>
+        <v>0.02595024394395775</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2347818077.003313</v>
+        <v>2110974010.042405</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08528105145040245</v>
+        <v>0.08168482426913212</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02527433815877305</v>
+        <v>0.02761717871078363</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1672246431.876624</v>
+        <v>1568802598.951331</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1210330560220113</v>
+        <v>0.145762186773113</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04744962968007965</v>
+        <v>0.04416676195582433</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4073019159.832025</v>
+        <v>5142655775.19556</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1497261304153678</v>
+        <v>0.1251773827155873</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06041738254433495</v>
+        <v>0.0404187670561993</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3491908078.99122</v>
+        <v>3789951476.85958</v>
       </c>
       <c r="F47" t="n">
-        <v>0.122703714326774</v>
+        <v>0.1813556314351437</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05132768577794877</v>
+        <v>0.03720047852415088</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2927100054.07065</v>
+        <v>3278820844.006244</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1002073439002302</v>
+        <v>0.0708850558102741</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03709177745793657</v>
+        <v>0.03906128741540821</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1480847796.671704</v>
+        <v>1373782348.509332</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1237071654772893</v>
+        <v>0.141340010000233</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04362926146568434</v>
+        <v>0.03132232821127093</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2566915537.151403</v>
+        <v>3887185886.335139</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1194190148984051</v>
+        <v>0.1411275085463879</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03733806263740823</v>
+        <v>0.05027240219452921</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1062741335.644468</v>
+        <v>935505942.1673907</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1870915181483385</v>
+        <v>0.1548788711010606</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04277894033040398</v>
+        <v>0.05035945016096886</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5269865859.180799</v>
+        <v>4171279229.214357</v>
       </c>
       <c r="F52" t="n">
-        <v>0.127471466474822</v>
+        <v>0.1222139150330887</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04222097456831247</v>
+        <v>0.05473430147806586</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2425687147.176478</v>
+        <v>3697936824.546544</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1257470204475692</v>
+        <v>0.1337124759176803</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02887233886085798</v>
+        <v>0.02159106251149914</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3158295502.94528</v>
+        <v>4421134328.480687</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1389398574501731</v>
+        <v>0.1653432972973011</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04438344539843241</v>
+        <v>0.04121507476607306</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4199721010.524819</v>
+        <v>3994496445.543773</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2182774912250922</v>
+        <v>0.2177959422776804</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02284063712726919</v>
+        <v>0.0256105814022006</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1421882770.575461</v>
+        <v>1170747859.856615</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1441527829779141</v>
+        <v>0.1227054314437188</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0528994941287978</v>
+        <v>0.0367508512803769</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3143553866.762391</v>
+        <v>4083790708.912078</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1564988463992555</v>
+        <v>0.1539563900898182</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02111306168413502</v>
+        <v>0.01818628024575488</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1430984107.861263</v>
+        <v>1573156987.769364</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1335600125432375</v>
+        <v>0.1605613106279284</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03745382818006118</v>
+        <v>0.03547440844641338</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4929433487.299593</v>
+        <v>3787020146.114806</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1140413684434376</v>
+        <v>0.1160315150878858</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04849419925796893</v>
+        <v>0.03155975565797851</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2991656334.731582</v>
+        <v>2598115666.293188</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1361564742118093</v>
+        <v>0.1607785211260321</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0202286602873435</v>
+        <v>0.03102621305786023</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2374104718.694481</v>
+        <v>2586602194.364639</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1173820141704545</v>
+        <v>0.1305433932956473</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02880457446071361</v>
+        <v>0.0220745890465483</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2057507834.044531</v>
+        <v>2076632613.694193</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1435827462873767</v>
+        <v>0.1766875087091671</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03221415374789124</v>
+        <v>0.04338692716365219</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4020600660.128176</v>
+        <v>4331810955.095958</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09550701473755917</v>
+        <v>0.0982635918495884</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03843153212948144</v>
+        <v>0.04049642343201561</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4308871349.87571</v>
+        <v>5237415111.355498</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1409519382586122</v>
+        <v>0.1829344991979975</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02915260294823511</v>
+        <v>0.02380628995005121</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3704724060.131594</v>
+        <v>5964902970.349904</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1103784594762305</v>
+        <v>0.1409775833646367</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03001493053756977</v>
+        <v>0.03149398662609279</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3972006179.080188</v>
+        <v>3915902703.314095</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1563864572541689</v>
+        <v>0.1239635235774482</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03647680173823771</v>
+        <v>0.03804015139273086</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3455361656.450359</v>
+        <v>2905572762.643923</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1027060494387619</v>
+        <v>0.06389019517072167</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03386204358387603</v>
+        <v>0.0361510899237845</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5606111901.172994</v>
+        <v>5175043342.347745</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1074485715837922</v>
+        <v>0.1202615067814487</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04711837463401804</v>
+        <v>0.04665022388548488</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1541800885.724373</v>
+        <v>2431487179.526854</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1567669980014494</v>
+        <v>0.1592898819291711</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05458667908355317</v>
+        <v>0.04641928006218222</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2889283606.632599</v>
+        <v>3556412873.16785</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1017748566052331</v>
+        <v>0.1019732356226303</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04933231877834962</v>
+        <v>0.04185575973354896</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5481649674.419966</v>
+        <v>3830745973.525928</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1156371437052518</v>
+        <v>0.160689205101982</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02364968622868642</v>
+        <v>0.0241185041822674</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1906811004.007086</v>
+        <v>2259920429.920274</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07743315928891981</v>
+        <v>0.08576897744572715</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04321110545281495</v>
+        <v>0.03375414881716887</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2754923979.145573</v>
+        <v>3116620671.329197</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1094297168137845</v>
+        <v>0.09376648539815054</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03939868332941626</v>
+        <v>0.05065753511154095</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3706351670.331132</v>
+        <v>3379155891.314903</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1607818407766498</v>
+        <v>0.1793210779477826</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02381364210637524</v>
+        <v>0.0256726189778714</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1557754190.152545</v>
+        <v>1762640640.885337</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1172437870463436</v>
+        <v>0.1350657357848025</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03752204597105763</v>
+        <v>0.0279362880527865</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3341873905.784253</v>
+        <v>3644038356.994934</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1018609032077422</v>
+        <v>0.09103255968108839</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02142448496487302</v>
+        <v>0.02229091185899566</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1821649665.40382</v>
+        <v>2074997988.065679</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1291158755575796</v>
+        <v>0.1247173266109804</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02988597812317844</v>
+        <v>0.02567415905516858</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3264994832.43202</v>
+        <v>3378979085.394587</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1154553554799577</v>
+        <v>0.0823689874946619</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04622757474641122</v>
+        <v>0.04224592998172004</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1385952966.52549</v>
+        <v>1289921998.904049</v>
       </c>
       <c r="F79" t="n">
-        <v>0.115997214495692</v>
+        <v>0.1146326564439672</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03337761615865364</v>
+        <v>0.02724641451998057</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3919273873.192346</v>
+        <v>3778026220.08822</v>
       </c>
       <c r="F80" t="n">
-        <v>0.104752002415225</v>
+        <v>0.08547696679129137</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03160241848658462</v>
+        <v>0.03175288090745784</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5002899636.86986</v>
+        <v>3239935044.544983</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09428539727144575</v>
+        <v>0.1013086014492916</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02971734514389352</v>
+        <v>0.02310361844597109</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5557121969.049643</v>
+        <v>4514653820.087199</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1600716014170767</v>
+        <v>0.1832798235968404</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0248465231147026</v>
+        <v>0.02726110782957125</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2458527407.021821</v>
+        <v>1945583160.908576</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1202219184731577</v>
+        <v>0.1019028796781627</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04051956193035144</v>
+        <v>0.03245907909611239</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2599431801.650918</v>
+        <v>1737403596.171995</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0884134228919356</v>
+        <v>0.0981548568455335</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05167494059825328</v>
+        <v>0.0342770165244903</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3498669016.58713</v>
+        <v>3343639907.374768</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1449417011414172</v>
+        <v>0.1556488323034999</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04622733792816566</v>
+        <v>0.05173201872740602</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2263391363.405511</v>
+        <v>1716721414.909233</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1364739096237856</v>
+        <v>0.1452997163141541</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02078027862793065</v>
+        <v>0.02192842408383382</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1388716761.78661</v>
+        <v>1275325829.297177</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1421109519810713</v>
+        <v>0.1210324290910657</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0364047098499103</v>
+        <v>0.04220946939372915</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2408437874.709828</v>
+        <v>2886823720.483977</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1722999853606003</v>
+        <v>0.1321652643611519</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03852636787791019</v>
+        <v>0.02437901615816408</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2937496093.38839</v>
+        <v>2875541267.99628</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1580216782033266</v>
+        <v>0.1146869191402678</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03392673531715183</v>
+        <v>0.0406358265496511</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1482363938.719127</v>
+        <v>1737914064.763553</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1198506274252092</v>
+        <v>0.1296858557932069</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04473456257690835</v>
+        <v>0.04962036996728017</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1391622624.522642</v>
+        <v>1631149461.548772</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1211015515190994</v>
+        <v>0.1817013727000559</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04804603692332273</v>
+        <v>0.05380313613419375</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1944616692.007115</v>
+        <v>2366690605.263122</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09644788509005513</v>
+        <v>0.08149351211576786</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03554200696297819</v>
+        <v>0.0315882606182996</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4205876234.60264</v>
+        <v>4673367366.858058</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1010779020617793</v>
+        <v>0.1117509833520668</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03694150880072346</v>
+        <v>0.04046242151911107</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2067845616.808225</v>
+        <v>2372552612.062338</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1629608396569495</v>
+        <v>0.1522156497277383</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0304676366955503</v>
+        <v>0.03852311621784562</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2226243905.92824</v>
+        <v>2119612594.078546</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08831520413767642</v>
+        <v>0.08818701897392987</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03300580521568319</v>
+        <v>0.03407527872948483</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1897400657.601016</v>
+        <v>2213251834.419838</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1294712885770296</v>
+        <v>0.1303126597253434</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04464364134498321</v>
+        <v>0.03629652446184029</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5328422521.496758</v>
+        <v>4283062829.126923</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1296385045993333</v>
+        <v>0.157750599337713</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02785420784377854</v>
+        <v>0.01996627065174135</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2628027670.264084</v>
+        <v>2606770582.019472</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1233686733936789</v>
+        <v>0.1223731280293201</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02549080101077382</v>
+        <v>0.02746840449032037</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2227284486.596951</v>
+        <v>2928726266.205508</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1286978650691019</v>
+        <v>0.1425200657808931</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03535847638533551</v>
+        <v>0.0245235740828521</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3627301264.044127</v>
+        <v>4575700647.846541</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1476879361578891</v>
+        <v>0.1440285654553475</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02307288612015564</v>
+        <v>0.01958024000559032</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2861889879.760191</v>
+        <v>3612864421.641916</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2038349747095474</v>
+        <v>0.2144382462406001</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03608661732403269</v>
+        <v>0.0424443849700174</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_166.xlsx
+++ b/output/fit_clients/fit_round_166.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1738207838.219081</v>
+        <v>2489561108.071462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1134000769214752</v>
+        <v>0.09639069063318231</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02789171200062413</v>
+        <v>0.03301261134354277</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1810411735.356771</v>
+        <v>2592574453.625794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1361475754278147</v>
+        <v>0.1696983319656289</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04205593928718942</v>
+        <v>0.03835130443856329</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3594079595.585757</v>
+        <v>3581392857.276886</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1576624268717503</v>
+        <v>0.1271587276128236</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03582658393376825</v>
+        <v>0.03604605706566601</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>93</v>
+      </c>
+      <c r="J4" t="n">
+        <v>165</v>
+      </c>
+      <c r="K4" t="n">
+        <v>91.97251870960149</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3368054306.127783</v>
+        <v>2959259861.195294</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1026690131768654</v>
+        <v>0.09709318433928056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04208014967175456</v>
+        <v>0.03446938057682111</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>68</v>
+      </c>
+      <c r="J5" t="n">
+        <v>163</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1956192265.40143</v>
+        <v>2810086395.790709</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1376593384694659</v>
+        <v>0.1386637900945742</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03808201284588329</v>
+        <v>0.0380054444804495</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2415391463.001184</v>
+        <v>2557320854.46939</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06887810147478103</v>
+        <v>0.09553436912661341</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04064213508421378</v>
+        <v>0.04260056555786049</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3244421895.287131</v>
+        <v>3806485802.944188</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2044543169528036</v>
+        <v>0.1950731838299934</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02399165786214987</v>
+        <v>0.02534347239409583</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>48</v>
+      </c>
+      <c r="J8" t="n">
+        <v>165</v>
+      </c>
+      <c r="K8" t="n">
+        <v>105.6595590835337</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1906611271.957431</v>
+        <v>1818732771.115265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1201529689160728</v>
+        <v>0.1926576690037363</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03364919704147267</v>
+        <v>0.02459674823889502</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5808755436.080688</v>
+        <v>4938138947.320027</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1354573470766215</v>
+        <v>0.2110999364925501</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04650753698476368</v>
+        <v>0.05191738182378149</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>153</v>
+      </c>
+      <c r="J10" t="n">
+        <v>166</v>
+      </c>
+      <c r="K10" t="n">
+        <v>143.974533519796</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3168769791.139827</v>
+        <v>4150193909.170747</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1812109100600807</v>
+        <v>0.1513120285792238</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04255408097867844</v>
+        <v>0.04364893197297148</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>68</v>
+      </c>
+      <c r="J11" t="n">
+        <v>166</v>
+      </c>
+      <c r="K11" t="n">
+        <v>135.2621520827466</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2115428954.687921</v>
+        <v>3155251914.976332</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1445665750038202</v>
+        <v>0.1644343273769233</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0386445450130662</v>
+        <v>0.04697415613375309</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5302332193.624983</v>
+        <v>4584372100.275598</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07497993791284301</v>
+        <v>0.0668363276149959</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01901872923781467</v>
+        <v>0.01889217730442954</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>81</v>
+      </c>
+      <c r="J13" t="n">
+        <v>166</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3213164145.289678</v>
+        <v>3424737691.905639</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1773880157071929</v>
+        <v>0.1447824523499852</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03794838834014493</v>
+        <v>0.04210977039430144</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>166</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1757705632.915445</v>
+        <v>1563208183.724213</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1025603622173594</v>
+        <v>0.08577349023715311</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04185012517580764</v>
+        <v>0.03518482766676122</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1820890589.585333</v>
+        <v>2504432749.12607</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1084343151433932</v>
+        <v>0.09135430993614894</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03779729858215246</v>
+        <v>0.03906806929430242</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5025378490.828761</v>
+        <v>3354223324.705309</v>
       </c>
       <c r="F17" t="n">
-        <v>0.153075083397015</v>
+        <v>0.1675984502341562</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04578639565008485</v>
+        <v>0.05086301068416574</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>80</v>
+      </c>
+      <c r="J17" t="n">
+        <v>164</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2609597810.352022</v>
+        <v>3914009464.402313</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1222175032989601</v>
+        <v>0.1664119876874299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02186030892795004</v>
+        <v>0.0309000834367082</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>41</v>
+      </c>
+      <c r="J18" t="n">
+        <v>166</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1147009869.886544</v>
+        <v>839927022.3530653</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1413300114096252</v>
+        <v>0.1427895852536005</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0217925330007154</v>
+        <v>0.02439953415269398</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2538175263.279943</v>
+        <v>2280258415.45764</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1511435622417198</v>
+        <v>0.1410452822312224</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02485505670346742</v>
+        <v>0.02203006093996596</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2299985740.794842</v>
+        <v>1647885777.69218</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06420716473869911</v>
+        <v>0.08042868344313729</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04137565730742627</v>
+        <v>0.0418003179228668</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3611460085.594268</v>
+        <v>4040572315.810458</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1036430058945748</v>
+        <v>0.1004081390710486</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05511890429863085</v>
+        <v>0.04090681799268186</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>43</v>
+      </c>
+      <c r="J22" t="n">
+        <v>166</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1300731806.391489</v>
+        <v>1103209171.883327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1120905071629348</v>
+        <v>0.112725058403225</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04926734219429262</v>
+        <v>0.03969664690333694</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3374880473.635608</v>
+        <v>2587083167.690477</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1017807707440796</v>
+        <v>0.1059706834782454</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02463357241783306</v>
+        <v>0.03707413483258361</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="n">
+        <v>164</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1111970653.7963</v>
+        <v>1183451941.5617</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07682429588045685</v>
+        <v>0.07762827688121865</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01973032626434343</v>
+        <v>0.03037927268662058</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1200686470.144567</v>
+        <v>1272238337.316184</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09268488344567136</v>
+        <v>0.1042748508091505</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02894067807911671</v>
+        <v>0.0288973178995785</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2922888780.166394</v>
+        <v>3953782020.765244</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1372020763350338</v>
+        <v>0.1547697963435833</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02081403375834264</v>
+        <v>0.02307594170675234</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>66</v>
+      </c>
+      <c r="J27" t="n">
+        <v>165</v>
+      </c>
+      <c r="K27" t="n">
+        <v>97.42732701513852</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2816412150.742325</v>
+        <v>3214718070.43628</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1210415991281537</v>
+        <v>0.1150573175595769</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04496686348995974</v>
+        <v>0.04216936139602475</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4809891118.612564</v>
+        <v>5780728260.47953</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1453150795657958</v>
+        <v>0.1083010824671018</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04546814023545181</v>
+        <v>0.04091262881509295</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>155</v>
+      </c>
+      <c r="J29" t="n">
+        <v>166</v>
+      </c>
+      <c r="K29" t="n">
+        <v>154.7284432404604</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2349367871.146323</v>
+        <v>1792375319.153006</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08881739026068609</v>
+        <v>0.1065840038011972</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0367955017428006</v>
+        <v>0.03395987284541474</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1224033807.734668</v>
+        <v>1405696800.816437</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0896081280475552</v>
+        <v>0.08166931657005654</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04556557789884673</v>
+        <v>0.03249215337605457</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1276546942.304441</v>
+        <v>1714302540.785709</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1163494295487933</v>
+        <v>0.1200026423265054</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02361188269742627</v>
+        <v>0.03002111538304777</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1895801084.980518</v>
+        <v>2826112198.512341</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1329433323535347</v>
+        <v>0.1815000986319104</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04075060131619922</v>
+        <v>0.04722379768261289</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1555793308.526772</v>
+        <v>982332149.5020939</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1112528027820347</v>
+        <v>0.1058358206911206</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02638510077722108</v>
+        <v>0.02791157417061181</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1069854284.33839</v>
+        <v>867299974.0695575</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1002307224367495</v>
+        <v>0.1145577831112844</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03834815059158256</v>
+        <v>0.03538561175245913</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2681318197.623989</v>
+        <v>2118406667.58385</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1588823258696858</v>
+        <v>0.1343517571885203</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02440411801590977</v>
+        <v>0.02851299111596298</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2394235052.635236</v>
+        <v>1783706746.315261</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07089981588902282</v>
+        <v>0.1076552309771354</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03042407562298574</v>
+        <v>0.02993978255654995</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1709809206.562459</v>
+        <v>1769440355.353253</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1012404424541305</v>
+        <v>0.08159057783342127</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0255635515068718</v>
+        <v>0.03161492699073926</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2187634780.29175</v>
+        <v>1450909604.839078</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1517642242194432</v>
+        <v>0.1695951796149413</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02468137163139283</v>
+        <v>0.02859748261419535</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1399775083.450471</v>
+        <v>1244539034.89036</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1218236203497649</v>
+        <v>0.1567106923504766</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03700472710536756</v>
+        <v>0.04386099478367163</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1905563726.934259</v>
+        <v>2276014370.757637</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1348556526079443</v>
+        <v>0.1253350686588195</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03568593839593708</v>
+        <v>0.03247572859062094</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3570417564.213328</v>
+        <v>4259712380.471601</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1124729120627072</v>
+        <v>0.1149565499672345</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04503612940968068</v>
+        <v>0.03161716625520036</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>62</v>
+      </c>
+      <c r="J42" t="n">
+        <v>166</v>
+      </c>
+      <c r="K42" t="n">
+        <v>137.2832595114711</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2648616224.366883</v>
+        <v>2162296900.748101</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1598677292832802</v>
+        <v>0.1681941826655417</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02595024394395775</v>
+        <v>0.02004089008621306</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2110974010.042405</v>
+        <v>2361372173.97799</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08168482426913212</v>
+        <v>0.09743610505936291</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02761717871078363</v>
+        <v>0.0365243512453269</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1568802598.951331</v>
+        <v>1820742986.049379</v>
       </c>
       <c r="F45" t="n">
-        <v>0.145762186773113</v>
+        <v>0.1523881487393063</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04416676195582433</v>
+        <v>0.04442975534697591</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5142655775.19556</v>
+        <v>4348093012.647779</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1251773827155873</v>
+        <v>0.1309668617519332</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0404187670561993</v>
+        <v>0.04920036976328314</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>94</v>
+      </c>
+      <c r="J46" t="n">
+        <v>165</v>
+      </c>
+      <c r="K46" t="n">
+        <v>133.3397541274135</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3789951476.85958</v>
+        <v>4534037343.552244</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1813556314351437</v>
+        <v>0.1956190512242272</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03720047852415088</v>
+        <v>0.04229391871470494</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>74</v>
+      </c>
+      <c r="J47" t="n">
+        <v>165</v>
+      </c>
+      <c r="K47" t="n">
+        <v>108.8048421637712</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3278820844.006244</v>
+        <v>3566474991.155303</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0708850558102741</v>
+        <v>0.08357024647497488</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03906128741540821</v>
+        <v>0.0273249640990568</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>74</v>
+      </c>
+      <c r="J48" t="n">
+        <v>166</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1373782348.509332</v>
+        <v>1846255576.399841</v>
       </c>
       <c r="F49" t="n">
-        <v>0.141340010000233</v>
+        <v>0.1326839519146296</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03132232821127093</v>
+        <v>0.03560341717514121</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3887185886.335139</v>
+        <v>3152663281.00139</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1411275085463879</v>
+        <v>0.1485837432821736</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05027240219452921</v>
+        <v>0.05303939346509159</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>55</v>
+      </c>
+      <c r="J50" t="n">
+        <v>163</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>935505942.1673907</v>
+        <v>1037479451.116787</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1548788711010606</v>
+        <v>0.1554583722060264</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05035945016096886</v>
+        <v>0.03354271248914022</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4171279229.214357</v>
+        <v>3503637002.5317</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1222139150330887</v>
+        <v>0.1131495138786967</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05473430147806586</v>
+        <v>0.04684853495379446</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>118</v>
+      </c>
+      <c r="J52" t="n">
+        <v>166</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3697936824.546544</v>
+        <v>3314253928.097372</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1337124759176803</v>
+        <v>0.2019113714189042</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02159106251149914</v>
+        <v>0.02591112879988685</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
+        <v>162</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4421134328.480687</v>
+        <v>3117657341.078476</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1653432972973011</v>
+        <v>0.1550408607530331</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04121507476607306</v>
+        <v>0.0330775764133201</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>81</v>
+      </c>
+      <c r="J54" t="n">
+        <v>165</v>
+      </c>
+      <c r="K54" t="n">
+        <v>73.35832939662104</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3994496445.543773</v>
+        <v>4225352110.134168</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2177959422776804</v>
+        <v>0.179117305635727</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0256105814022006</v>
+        <v>0.0325244161067982</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>75</v>
+      </c>
+      <c r="J55" t="n">
+        <v>166</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1170747859.856615</v>
+        <v>1732448623.732275</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1227054314437188</v>
+        <v>0.1357923344572014</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0367508512803769</v>
+        <v>0.05759479778080707</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4083790708.912078</v>
+        <v>3980133732.379926</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1539563900898182</v>
+        <v>0.118938681476235</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01818628024575488</v>
+        <v>0.0217933177680571</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>67</v>
+      </c>
+      <c r="J57" t="n">
+        <v>166</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1573156987.769364</v>
+        <v>1581282620.105516</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1605613106279284</v>
+        <v>0.1626974227234131</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03547440844641338</v>
+        <v>0.03431048417572045</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3787020146.114806</v>
+        <v>4560689444.222534</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1160315150878858</v>
+        <v>0.08933394363280509</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03155975565797851</v>
+        <v>0.04860156341658457</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>80</v>
+      </c>
+      <c r="J59" t="n">
+        <v>165</v>
+      </c>
+      <c r="K59" t="n">
+        <v>123.7079497649256</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2598115666.293188</v>
+        <v>2510935167.479856</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1607785211260321</v>
+        <v>0.176841342020241</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03102621305786023</v>
+        <v>0.02170910837853107</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2586602194.364639</v>
+        <v>2103475983.975194</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1305433932956473</v>
+        <v>0.1589729979746312</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0220745890465483</v>
+        <v>0.02304495399888224</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2076632613.694193</v>
+        <v>2113074215.672294</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1766875087091671</v>
+        <v>0.1916101632145104</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04338692716365219</v>
+        <v>0.03610372582494643</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4331810955.095958</v>
+        <v>4710153122.855581</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0982635918495884</v>
+        <v>0.08906434065239607</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04049642343201561</v>
+        <v>0.0462247105700201</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>81</v>
+      </c>
+      <c r="J63" t="n">
+        <v>166</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5237415111.355498</v>
+        <v>5376381034.886788</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1829344991979975</v>
+        <v>0.1741797522026507</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02380628995005121</v>
+        <v>0.02932480782046558</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>82</v>
+      </c>
+      <c r="J64" t="n">
+        <v>165</v>
+      </c>
+      <c r="K64" t="n">
+        <v>125.291080630802</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5964902970.349904</v>
+        <v>5118024278.130449</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1409775833646367</v>
+        <v>0.149499814065646</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03149398662609279</v>
+        <v>0.02433923426482053</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>137</v>
+      </c>
+      <c r="J65" t="n">
+        <v>166</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3915902703.314095</v>
+        <v>5572142455.734446</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1239635235774482</v>
+        <v>0.1223055219903914</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03804015139273086</v>
+        <v>0.04215427842712226</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>82</v>
+      </c>
+      <c r="J66" t="n">
+        <v>165</v>
+      </c>
+      <c r="K66" t="n">
+        <v>123.4228830731354</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2905572762.643923</v>
+        <v>2253923256.666151</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06389019517072167</v>
+        <v>0.0811912769999469</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0361510899237845</v>
+        <v>0.04789143320584965</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5175043342.347745</v>
+        <v>5578263338.405289</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1202615067814487</v>
+        <v>0.1047779127620321</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04665022388548488</v>
+        <v>0.04026148124653549</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>83</v>
+      </c>
+      <c r="J68" t="n">
+        <v>166</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2431487179.526854</v>
+        <v>1730954675.154438</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1592898819291711</v>
+        <v>0.1132494249848798</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04641928006218222</v>
+        <v>0.04098382401715397</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2907,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3556412873.16785</v>
+        <v>2680672047.821717</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019732356226303</v>
+        <v>0.09341442367961043</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04185575973354896</v>
+        <v>0.04796507901633144</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>165</v>
+      </c>
+      <c r="K70" t="n">
+        <v>49.11973204359226</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3830745973.525928</v>
+        <v>5050910079.678749</v>
       </c>
       <c r="F71" t="n">
-        <v>0.160689205101982</v>
+        <v>0.12392532263033</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0241185041822674</v>
+        <v>0.02812629963339616</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>131</v>
+      </c>
+      <c r="J71" t="n">
+        <v>165</v>
+      </c>
+      <c r="K71" t="n">
+        <v>135.1962085478722</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2259920429.920274</v>
+        <v>1905095654.026228</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08576897744572715</v>
+        <v>0.08577744181489699</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03375414881716887</v>
+        <v>0.03901116824897357</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3116620671.329197</v>
+        <v>2837808786.700367</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09376648539815054</v>
+        <v>0.08366699973480335</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05065753511154095</v>
+        <v>0.03759447034242262</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3379155891.314903</v>
+        <v>3230790077.032444</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1793210779477826</v>
+        <v>0.1469423871784036</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0256726189778714</v>
+        <v>0.02717101592355275</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>49</v>
+      </c>
+      <c r="J74" t="n">
+        <v>164</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1762640640.885337</v>
+        <v>2190547657.29103</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1350657357848025</v>
+        <v>0.148512747381338</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0279362880527865</v>
+        <v>0.02678668825619284</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3644038356.994934</v>
+        <v>3592910064.435968</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09103255968108839</v>
+        <v>0.09866222663836748</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02229091185899566</v>
+        <v>0.02108605605971354</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>76</v>
+      </c>
+      <c r="J76" t="n">
+        <v>165</v>
+      </c>
+      <c r="K76" t="n">
+        <v>77.85935065394646</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2074997988.065679</v>
+        <v>2246684078.91704</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1247173266109804</v>
+        <v>0.1277283636917458</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02567415905516858</v>
+        <v>0.02967164447006489</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3378979085.394587</v>
+        <v>3209550955.223886</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0823689874946619</v>
+        <v>0.1256414622670207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04224592998172004</v>
+        <v>0.05011698655533354</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>84</v>
+      </c>
+      <c r="J78" t="n">
+        <v>165</v>
+      </c>
+      <c r="K78" t="n">
+        <v>77.55126263283539</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1289921998.904049</v>
+        <v>1877928100.64872</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1146326564439672</v>
+        <v>0.1766035443514676</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02724641451998057</v>
+        <v>0.03113160072572254</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3778026220.08822</v>
+        <v>4201608446.290953</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08547696679129137</v>
+        <v>0.07751872620786024</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03175288090745784</v>
+        <v>0.02332582707838203</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>81</v>
+      </c>
+      <c r="J80" t="n">
+        <v>165</v>
+      </c>
+      <c r="K80" t="n">
+        <v>95.29072808723971</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3239935044.544983</v>
+        <v>4285421258.912034</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1013086014492916</v>
+        <v>0.1279590476084137</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02310361844597109</v>
+        <v>0.03174086976285526</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>76</v>
+      </c>
+      <c r="J81" t="n">
+        <v>166</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4514653820.087199</v>
+        <v>5099072696.120358</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1832798235968404</v>
+        <v>0.1873238925130134</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02726110782957125</v>
+        <v>0.02382433700665658</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>121</v>
+      </c>
+      <c r="J82" t="n">
+        <v>166</v>
+      </c>
+      <c r="K82" t="n">
+        <v>141.0935371865725</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1945583160.908576</v>
+        <v>2169142669.870626</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1019028796781627</v>
+        <v>0.1081898207913987</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03245907909611239</v>
+        <v>0.03672493487986545</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1737403596.171995</v>
+        <v>1943139717.280565</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0981548568455335</v>
+        <v>0.08677956461722337</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0342770165244903</v>
+        <v>0.0441513766599389</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3343639907.374768</v>
+        <v>2275440699.331759</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1556488323034999</v>
+        <v>0.1719382509293295</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05173201872740602</v>
+        <v>0.03532446878797256</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+      <c r="J85" t="n">
+        <v>162</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1716721414.909233</v>
+        <v>2706279772.288945</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1452997163141541</v>
+        <v>0.1406020017125047</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02192842408383382</v>
+        <v>0.02241451719679448</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1275325829.297177</v>
+        <v>1379465762.088967</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1210324290910657</v>
+        <v>0.1760056171401869</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04220946939372915</v>
+        <v>0.03058868863404596</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2886823720.483977</v>
+        <v>3044341597.691032</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1321652643611519</v>
+        <v>0.1712906081534717</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02437901615816408</v>
+        <v>0.03687061821954649</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2875541267.99628</v>
+        <v>2381033059.552356</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1146869191402678</v>
+        <v>0.1287823271065521</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0406358265496511</v>
+        <v>0.03317040994448489</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1737914064.763553</v>
+        <v>1486169798.053688</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1296858557932069</v>
+        <v>0.1060230927168273</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04962036996728017</v>
+        <v>0.03852378698784662</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1631149461.548772</v>
+        <v>1661529691.696315</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1817013727000559</v>
+        <v>0.1226332432699508</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05380313613419375</v>
+        <v>0.04215425971698539</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2366690605.263122</v>
+        <v>1962273484.723215</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08149351211576786</v>
+        <v>0.1000713643656173</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0315882606182996</v>
+        <v>0.0424650282330284</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4673367366.858058</v>
+        <v>3681770818.063639</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1117509833520668</v>
+        <v>0.1342651170026501</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04046242151911107</v>
+        <v>0.04461957343410466</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>74</v>
+      </c>
+      <c r="J93" t="n">
+        <v>166</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2372552612.062338</v>
+        <v>1730601913.519764</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1522156497277383</v>
+        <v>0.1494229132848935</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03852311621784562</v>
+        <v>0.02848167496612772</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2119612594.078546</v>
+        <v>2563484922.165185</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08818701897392987</v>
+        <v>0.1282944572914478</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03407527872948483</v>
+        <v>0.05249250129616363</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2213251834.419838</v>
+        <v>1992464822.784715</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1303126597253434</v>
+        <v>0.1046548028713011</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03629652446184029</v>
+        <v>0.0400313499107237</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4283062829.126923</v>
+        <v>4477657055.553983</v>
       </c>
       <c r="F97" t="n">
-        <v>0.157750599337713</v>
+        <v>0.1710931830774242</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01996627065174135</v>
+        <v>0.02789782684589759</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>80</v>
+      </c>
+      <c r="J97" t="n">
+        <v>165</v>
+      </c>
+      <c r="K97" t="n">
+        <v>131.0160064219897</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2606770582.019472</v>
+        <v>3657021552.459696</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1223731280293201</v>
+        <v>0.1065629052298269</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02746840449032037</v>
+        <v>0.02257066023447141</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>39</v>
+      </c>
+      <c r="J98" t="n">
+        <v>166</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2928726266.205508</v>
+        <v>2613333394.160971</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1425200657808931</v>
+        <v>0.09565303824039895</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0245235740828521</v>
+        <v>0.02727613961693994</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4575700647.846541</v>
+        <v>4210141165.967945</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1440285654553475</v>
+        <v>0.1767200360942928</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01958024000559032</v>
+        <v>0.02822072798933095</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>69</v>
+      </c>
+      <c r="J100" t="n">
+        <v>166</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3612864421.641916</v>
+        <v>2948289555.235867</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2144382462406001</v>
+        <v>0.1628878297117026</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0424443849700174</v>
+        <v>0.03857195755090088</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>14</v>
+      </c>
+      <c r="J101" t="n">
+        <v>163</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
